--- a/FabLab_oil_and_gas/Equations_of_state/solution/коэф парного взаимодействия.xlsx
+++ b/FabLab_oil_and_gas/Equations_of_state/solution/коэф парного взаимодействия.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Ucheba\Poly_3_kurs\3_Kurs_MexMatMod\FabLab_oil_and_gas\Equations_of_state\solution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E09FBC-10E4-453F-8FF2-488CBD24A497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23805F2-9FF6-45D2-9E12-1FBF545B6232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29760" yWindow="960" windowWidth="21600" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16188" yWindow="3096" windowWidth="13824" windowHeight="7260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="30">
   <si>
     <t>c(ij)</t>
   </si>
@@ -34,9 +34,6 @@
     <t>C3H8</t>
   </si>
   <si>
-    <t>C4H10(изо- и н-)</t>
-  </si>
-  <si>
     <t>C5H12</t>
   </si>
   <si>
@@ -107,6 +104,12 @@
   </si>
   <si>
     <t>C3H81</t>
+  </si>
+  <si>
+    <t>C4H10(изо-)</t>
+  </si>
+  <si>
+    <t>C4H10(н-)</t>
   </si>
 </sst>
 </file>
@@ -431,15 +434,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -453,33 +456,36 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1">
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="7">
         <v>0</v>
@@ -490,34 +496,37 @@
       <c r="D2" s="7">
         <v>0.01</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="11">
         <v>0.01</v>
       </c>
       <c r="F2" s="7">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="G2" s="7">
         <v>0.03</v>
       </c>
       <c r="H2" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="I2" s="7">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="8">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="8">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="K2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1">
+    </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="7">
         <v>5.0000000000000001E-3</v>
@@ -528,163 +537,175 @@
       <c r="D3" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="11">
         <v>0.01</v>
       </c>
       <c r="F3" s="7">
         <v>0.01</v>
       </c>
       <c r="G3" s="7">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H3" s="7">
         <v>0.02</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="L3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="K3" s="9" t="s">
+      <c r="M3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="9" t="s">
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="C4" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="H4" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I4" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J4" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="K4" s="8">
+        <v>0.09</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H5" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I5" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="8">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="C4" s="7">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0.02</v>
-      </c>
-      <c r="G4" s="7">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H4" s="7">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A5" s="3" t="s">
+      <c r="B6" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H6" s="11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I6" s="11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="8">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A7" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B5" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G5" s="7">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H5" s="7">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="8">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0.02</v>
-      </c>
-      <c r="E6" s="7">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="10">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="B7" s="7">
         <v>0.03</v>
       </c>
       <c r="C7" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="D7" s="7">
         <v>0.02</v>
       </c>
-      <c r="D7" s="7">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="E7" s="11">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F7" s="7">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
@@ -692,25 +713,28 @@
       <c r="H7" s="7">
         <v>0</v>
       </c>
-      <c r="I7" s="10">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>21</v>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10">
+        <v>0</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0.1</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1">
+        <v>20</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="7">
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="C8" s="7">
         <v>0.02</v>
@@ -718,11 +742,11 @@
       <c r="D8" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="11">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F8" s="7">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G8" s="7">
         <v>0</v>
@@ -730,168 +754,224 @@
       <c r="H8" s="7">
         <v>0</v>
       </c>
-      <c r="I8" s="10">
-        <v>0</v>
-      </c>
-      <c r="J8" s="8">
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="10">
+        <v>0</v>
+      </c>
+      <c r="K8" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="D9" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E9" s="11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F9" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10">
+        <v>0</v>
+      </c>
+      <c r="K9" s="8">
         <v>0.115</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="L9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="11">
+        <v>0</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="8">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.09</v>
+      </c>
+      <c r="E11" s="8">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="F11" s="8">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0.115</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0</v>
+      </c>
+      <c r="L12" s="7">
+        <v>0</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="F13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="K13" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0</v>
-      </c>
-      <c r="G9" s="10">
-        <v>0</v>
-      </c>
-      <c r="H9" s="10">
-        <v>0</v>
-      </c>
-      <c r="I9" s="11">
-        <v>0</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="9" t="s">
+      <c r="L13" s="13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C10" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="E10" s="8">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="F10" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="G10" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="H10" s="8">
-        <v>0.115</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="7">
-        <v>0</v>
-      </c>
-      <c r="K10" s="7">
-        <v>0</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="7">
-        <v>0</v>
-      </c>
-      <c r="K11" s="7">
-        <v>0</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L12" s="14">
+      <c r="M13" s="14">
         <v>0</v>
       </c>
     </row>

--- a/FabLab_oil_and_gas/Equations_of_state/solution/коэф парного взаимодействия.xlsx
+++ b/FabLab_oil_and_gas/Equations_of_state/solution/коэф парного взаимодействия.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Ucheba\Poly_3_kurs\3_Kurs_MexMatMod\FabLab_oil_and_gas\Equations_of_state\solution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23805F2-9FF6-45D2-9E12-1FBF545B6232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E372A266-3408-40FB-8094-7944EA72D1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16188" yWindow="3096" windowWidth="13824" windowHeight="7260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="27">
   <si>
     <t>c(ij)</t>
   </si>
@@ -95,15 +95,6 @@
   </si>
   <si>
     <t>0.135</t>
-  </si>
-  <si>
-    <t>CH41</t>
-  </si>
-  <si>
-    <t>C2H61</t>
-  </si>
-  <si>
-    <t>C3H81</t>
   </si>
   <si>
     <t>C4H10(изо-)</t>
@@ -436,8 +427,8 @@
   </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -456,10 +447,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -485,7 +476,7 @@
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B2" s="7">
         <v>0</v>
@@ -526,7 +517,7 @@
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B3" s="7">
         <v>5.0000000000000001E-3</v>
@@ -567,7 +558,7 @@
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B4" s="7">
         <v>0.01</v>
@@ -608,7 +599,7 @@
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B5" s="7">
         <v>0.01</v>
@@ -649,7 +640,7 @@
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B6" s="11">
         <v>0.01</v>
